--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>param</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>sig2</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
   <si>
     <t>mu_0</t>
@@ -420,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2266847098255321</v>
+        <v>0.2245587977400072</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7914475955201596</v>
+        <v>0.7915539934881989</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +455,15 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>25.98498513741816</v>
+        <v>25.98836804426803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -461,6 +472,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>-2.097491365105733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.6459158245475946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>18.35828714331902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1.714966841068718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.7212581101144525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>17.22772528873781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-0.01812876880695317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.8183173657550546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.11384254152736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.8612922117253595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -475,58 +626,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.093109684335155</v>
+        <v>-0.0280543232094097</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.6462050218280038</v>
+        <v>0.8228525564822373</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>18.35637753189041</v>
+        <v>0.1105892811071668</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>1.714966841068718</v>
+        <v>0.007879247899063064</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.7212581101144525</v>
+        <v>0.860584135235527</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>17.22772528873781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -534,9 +685,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -552,15 +703,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.01656295260419062</v>
+        <v>0.2028608867379376</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8193692899496556</v>
+        <v>0.7818455861394409</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1140172230751759</v>
+        <v>0.8785500473367713</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,147 +727,39 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.8610627958603584</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-0.02627453418529399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.8237736059613066</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0.1108317790615283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>0.00770087333482343</v>
+        <v>0.1128992942945978</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.8603756945217019</v>
+        <v>0.0250483102386578</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.2052457078301038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.7815188181045825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0.8801373533788079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0.1133036204965686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0.02497229459424425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.8436011147641711</v>
+        <v>0.8440810062873809</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>param</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>sig2</t>
-  </si>
-  <si>
-    <t>scale</t>
   </si>
   <si>
     <t>mu_0</t>
@@ -423,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2245587977400072</v>
+        <v>9.59786806618859E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -447,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7915539934881989</v>
+        <v>0.7564498171045679</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -455,15 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>25.98836804426803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
+        <v>9.318303459177797E-06</v>
       </c>
     </row>
   </sheetData>
@@ -472,146 +461,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>-2.097491365105733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.6459158245475946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>18.35828714331902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1.714966841068718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.7212581101144525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>17.22772528873781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-0.01812876880695317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0.8183173657550546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0.11384254152736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>0.8612922117253595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -626,58 +475,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0280543232094097</v>
+        <v>-0.001193261164033157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.8228525564822373</v>
+        <v>0.6584611395717872</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1105892811071668</v>
+        <v>8.064480603290742E-06</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.007879247899063064</v>
+        <v>0.001165894478952115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.860584135235527</v>
+        <v>0.6338039133028868</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5.128452560317167E-06</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -685,9 +534,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -703,7 +552,123 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2028608867379376</v>
+        <v>-1.733344568364498E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.271024073759526E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1.210663396516315E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>8.686502458452914E-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-8.777780410698431E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.004376773404146E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>5.773312300739922E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1.110258207861247E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>8.826713282825002E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6.865023931064814E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -711,55 +676,47 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7818455861394409</v>
+        <v>0.7628459613060981</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.8785500473367713</v>
+        <v>9.635034729696127E-08</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1128992942945978</v>
+        <v>1.719623120469441E-08</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.0250483102386578</v>
+        <v>1.461052723132224E-07</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.8440810062873809</v>
+        <v>8.993547269692003E-07</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.59786806618859E-05</v>
+        <v>0.02999222118014286</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7564498171045679</v>
+        <v>0.7325608976808113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.318303459177797E-06</v>
+        <v>0.1408722516562999</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.001193261164033157</v>
+        <v>-0.1974865599909555</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.6584611395717872</v>
+        <v>0.4714135928410155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8.064480603290742E-06</v>
+        <v>0.08615543052135079</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.001165894478952115</v>
+        <v>0.2212855327134672</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6338039133028868</v>
+        <v>0.5199371156345707</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>5.128452560317167E-06</v>
+        <v>0.11074069437745</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.733344568364498E-05</v>
+        <v>0.001719533569652933</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.271024073759526E-07</v>
+        <v>0.123955123772953</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.210663396516315E-07</v>
+        <v>0.1171079610609286</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>8.686502458452914E-07</v>
+        <v>0.09761581642944596</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-8.777780410698431E-05</v>
+        <v>0.005193054085146191</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.004376773404146E-07</v>
+        <v>0.126913691658619</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5.773312300739922E-08</v>
+        <v>0.1624302673115644</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1.110258207861247E-07</v>
+        <v>-0.09557983522698058</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>8.826713282825002E-07</v>
+        <v>0.08057397974730415</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.865023931064814E-05</v>
+        <v>0.02991105400350757</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7628459613060981</v>
+        <v>0.7421410095620198</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>9.635034729696127E-08</v>
+        <v>0.122494724306115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.719623120469441E-08</v>
+        <v>0.1600111935395574</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.461052723132224E-07</v>
+        <v>-0.08746286348230323</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>8.993547269692003E-07</v>
+        <v>2.06478559557175E-13</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02999222118014286</v>
+        <v>0.01243057718675595</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7325608976808113</v>
+        <v>0.7376452720460356</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1408722516562999</v>
+        <v>0.1601656354196113</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1974865599909555</v>
+        <v>-0.2180802767164535</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4714135928410155</v>
+        <v>0.4925340779910922</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.08615543052135079</v>
+        <v>0.1265223994069928</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2212855327134672</v>
+        <v>0.1978947357205064</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5199371156345707</v>
+        <v>0.5558742456339631</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.11074069437745</v>
+        <v>0.1082384134766228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.001719533569652933</v>
+        <v>0.003695693444294456</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.123955123772953</v>
+        <v>0.09270187197012893</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1171079610609286</v>
+        <v>0.1092733982535347</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.09761581642944596</v>
+        <v>0.3753546300531441</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.005193054085146191</v>
+        <v>-0.001456517523531432</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.126913691658619</v>
+        <v>0.09631028573953543</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1624302673115644</v>
+        <v>0.06744415070099802</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.09557983522698058</v>
+        <v>0.09849100148646442</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.08057397974730415</v>
+        <v>0.3487792491297289</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02991105400350757</v>
+        <v>0.01433765048121539</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7421410095620198</v>
+        <v>0.7404502184548641</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.122494724306115</v>
+        <v>0.1284888967380759</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1600111935395574</v>
+        <v>0.06084455613529566</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.08746286348230323</v>
+        <v>0.1367254380563212</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2.06478559557175E-13</v>
+        <v>0.06594367870700507</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01243057718675595</v>
+        <v>0.01243055662314108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7376452720460356</v>
+        <v>0.7376459465584979</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1601656354196113</v>
+        <v>0.1601655372721414</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.2180802767164535</v>
+        <v>-0.2180795150684376</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4925340779910922</v>
+        <v>0.4925360402897495</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1265223994069928</v>
+        <v>0.1265225962553996</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.1978947357205064</v>
+        <v>0.1978941530367855</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5558742456339631</v>
+        <v>0.5558757610040745</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1082384134766228</v>
+        <v>0.1082382527873279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.003695693444294456</v>
+        <v>0.003695654183646918</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.09270187197012893</v>
+        <v>0.09269855198185691</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1092733982535347</v>
+        <v>0.1092717970169874</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3753546300531441</v>
+        <v>0.3753737145954895</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.001456517523531432</v>
+        <v>-0.001456495950617168</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.09631028573953543</v>
+        <v>0.09630682093370638</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.06744415070099802</v>
+        <v>0.06744474913651076</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.09849100148646442</v>
+        <v>0.09848590443905053</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.3487792491297289</v>
+        <v>0.3487993862120546</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01433765048121539</v>
+        <v>0.01433779643802531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7404502184548641</v>
+        <v>0.7404488535277214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1284888967380759</v>
+        <v>0.1284867914129899</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.06084455613529566</v>
+        <v>0.06084653990484852</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1367254380563212</v>
+        <v>0.136721575462217</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06594367870700507</v>
+        <v>0.06595493258240541</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01243055662314108</v>
+        <v>0.01243049278933462</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7376459465584979</v>
+        <v>0.7376457666708963</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1601655372721414</v>
+        <v>0.160165119254103</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.2180795150684376</v>
+        <v>-0.2180793635757188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4925360402897495</v>
+        <v>0.4925363200331889</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1265225962553996</v>
+        <v>0.1265216613277972</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.1978941530367855</v>
+        <v>0.1978947740813063</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5558757610040745</v>
+        <v>0.5558738183532773</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1082382527873279</v>
+        <v>0.1082381809697736</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.003695654183646918</v>
+        <v>0.003695660400801182</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.09269855198185691</v>
+        <v>0.092695265591832</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1092717970169874</v>
+        <v>0.1092686940588023</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3753737145954895</v>
+        <v>0.3753944625622345</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.001456495950617168</v>
+        <v>-0.001456555596687979</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.09630682093370638</v>
+        <v>0.09630400395381473</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.06744474913651076</v>
+        <v>0.06744333482725616</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.09848590443905053</v>
+        <v>0.09848362927042849</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.3487993862120546</v>
+        <v>0.3488169810987286</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01433779643802531</v>
+        <v>0.01433740848928963</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7404488535277214</v>
+        <v>0.7404503223580009</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1284867914129899</v>
+        <v>0.128486853517617</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.06084653990484852</v>
+        <v>0.06084400226773513</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.136721575462217</v>
+        <v>0.1367147573530755</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06595493258240541</v>
+        <v>0.06595769985382126</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01243049278933462</v>
+        <v>0.0299256128435421</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7376457666708963</v>
+        <v>0.7325138872445754</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.160165119254103</v>
+        <v>0.1408812316988213</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.2180793635757188</v>
+        <v>-0.197441098115896</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4925363200331889</v>
+        <v>0.4715355387481921</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1265216613277972</v>
+        <v>0.08611215606819642</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.1978947740813063</v>
+        <v>0.2210199364122115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5558738183532773</v>
+        <v>0.520313294299495</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1082381809697736</v>
+        <v>0.1107409043282848</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.003695660400801182</v>
+        <v>0.00167517946988847</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.092695265591832</v>
+        <v>0.1241171349987658</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1092686940588023</v>
+        <v>0.1171139739545588</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3753944625622345</v>
+        <v>0.09663113518618067</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.001456555596687979</v>
+        <v>0.00514784546706321</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.09630400395381473</v>
+        <v>0.1271021165879098</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.06744333482725616</v>
+        <v>0.1624696733528037</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.09848362927042849</v>
+        <v>-0.09564404579539734</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.3488169810987286</v>
+        <v>0.07944029569684669</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01433740848928963</v>
+        <v>0.02983738716345268</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7404503223580009</v>
+        <v>0.7420931838967758</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.128486853517617</v>
+        <v>0.1225124538320857</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.06084400226773513</v>
+        <v>0.1600174543689986</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1367147573530755</v>
+        <v>-0.08762139786380092</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06595769985382126</v>
+        <v>3.602120678178935E-13</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0299256128435421</v>
+        <v>0.02916767700417746</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7325138872445754</v>
+        <v>0.7332309296706055</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1408812316988213</v>
+        <v>0.1412182585663979</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.197441098115896</v>
+        <v>-0.1954556737116437</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4715355387481921</v>
+        <v>0.4768473520779326</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.08611215606819642</v>
+        <v>0.08522334032668341</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2210199364122115</v>
+        <v>0.2223730028545269</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.520313294299495</v>
+        <v>0.5188210195518926</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1107409043282848</v>
+        <v>0.1119344637251361</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.00167517946988847</v>
+        <v>0.001498945269615333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1241171349987658</v>
+        <v>0.1233957922233927</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1171139739545588</v>
+        <v>0.1183151285763061</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.09663113518618067</v>
+        <v>0.1013002080738224</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.00514784546706321</v>
+        <v>0.005293843590550624</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1271021165879098</v>
+        <v>0.125322306535994</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1624696733528037</v>
+        <v>0.1677364397407176</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.09564404579539734</v>
+        <v>-0.103335456422519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.07944029569684669</v>
+        <v>0.09070045317018136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02983738716345268</v>
+        <v>0.02900923092886231</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7420931838967758</v>
+        <v>0.7426944615994627</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1225124538320857</v>
+        <v>0.1225117380780059</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1600174543689986</v>
+        <v>0.1665341123832115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.08762139786380092</v>
+        <v>-0.09733871114062294</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>3.602120678178935E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02916767700417746</v>
+        <v>0.02932209342803639</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7332309296706055</v>
+        <v>0.7333374797800361</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1412182585663979</v>
+        <v>0.1413117812799242</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1954556737116437</v>
+        <v>-0.1955801862541403</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4768473520779326</v>
+        <v>0.4766773657887929</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.08522334032668341</v>
+        <v>0.08525934554290081</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2223730028545269</v>
+        <v>0.2227111146514247</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5188210195518926</v>
+        <v>0.5186307991299256</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1119344637251361</v>
+        <v>0.112034408811864</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.001498945269615333</v>
+        <v>0.001535210241712916</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1233957922233927</v>
+        <v>0.1233932358123391</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1183151285763061</v>
+        <v>0.1182427111942211</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.1013002080738224</v>
+        <v>0.1018618486279261</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.005293843590550624</v>
+        <v>0.00533156315102192</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.125322306535994</v>
+        <v>0.125273794606811</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1677364397407176</v>
+        <v>0.1677308871879611</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.103335456422519</v>
+        <v>-0.1034372369181213</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.09070045317018136</v>
+        <v>0.09153806707365733</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02900923092886231</v>
+        <v>0.02912624553320993</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7426944615994627</v>
+        <v>0.7427860865413107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1225117380780059</v>
+        <v>0.1225920795285902</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1665341123832115</v>
+        <v>0.1666990737914558</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.09733871114062294</v>
+        <v>-0.09762009021347291</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.472789155583596E-13</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02932209342803639</v>
+        <v>0.0008887854659561153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7333374797800361</v>
+        <v>0.7727922900322718</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1413117812799242</v>
+        <v>0.1005288770640802</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1955801862541403</v>
+        <v>-0.09306512800291195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4766773657887929</v>
+        <v>0.729940048388102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.08525934554290081</v>
+        <v>0.07780760966866578</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2227111146514247</v>
+        <v>0.09573379536244561</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5186307991299256</v>
+        <v>0.6962706411279245</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.112034408811864</v>
+        <v>0.06103817075380358</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.001535210241712916</v>
+        <v>-0.0009891166833161688</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1233932358123391</v>
+        <v>0.002268313855635574</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1182427111942211</v>
+        <v>0.1999993330331042</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.1018618486279261</v>
+        <v>0.7800007428514291</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.00533156315102192</v>
+        <v>-0.001065093801448775</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.125273794606811</v>
+        <v>0.002269123102064011</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1677308871879611</v>
+        <v>0.1999995091724977</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.1034372369181213</v>
+        <v>0.00999997185428371</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.09153806707365733</v>
+        <v>0.7750005422751267</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02912624553320993</v>
+        <v>0.001706453550795025</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7427860865413107</v>
+        <v>0.7760529830641222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1225920795285902</v>
+        <v>0.002010370423522397</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1666990737914558</v>
+        <v>0.199979546336019</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.09762009021347291</v>
+        <v>0.009999039529196617</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>3.472789155583596E-13</v>
+        <v>0.775023178175507</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0008887854659561153</v>
+        <v>0.03007924373640643</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7727922900322718</v>
+        <v>0.7326214480680929</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1005288770640802</v>
+        <v>0.1409730554678411</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.09306512800291195</v>
+        <v>-0.197570989710198</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.729940048388102</v>
+        <v>0.4713572626792232</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.07780760966866578</v>
+        <v>0.08614862325456554</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.09573379536244561</v>
+        <v>0.2213507600408778</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6962706411279245</v>
+        <v>0.5201312346442396</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.06103817075380358</v>
+        <v>0.1108389922589246</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.0009891166833161688</v>
+        <v>0.001711927147584849</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.002268313855635574</v>
+        <v>0.1241065628620917</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1999993330331042</v>
+        <v>0.1170436185958559</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.7800007428514291</v>
+        <v>0.0972403634145055</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.001065093801448775</v>
+        <v>0.005186161183856458</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.002269123102064011</v>
+        <v>0.1270508620537776</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1999995091724977</v>
+        <v>0.1624513152579756</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.00999997185428371</v>
+        <v>-0.09572806553046015</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7750005422751267</v>
+        <v>0.08030022005608356</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.001706453550795025</v>
+        <v>0.02995639143279542</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7760529830641222</v>
+        <v>0.7421898822359545</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.002010370423522397</v>
+        <v>0.122592200128986</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.199979546336019</v>
+        <v>0.160163711817313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.009999039529196617</v>
+        <v>-0.08788277008875169</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.775023178175507</v>
+        <v>1.563652288748735E-11</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/factor_calibrations.xlsx
+++ b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03007924373640643</v>
+        <v>0.0008887854659561153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7326214480680929</v>
+        <v>0.7727922900322718</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1409730554678411</v>
+        <v>0.1005288770640802</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.197570989710198</v>
+        <v>-0.09306512800291195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4713572626792232</v>
+        <v>0.729940048388102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.08614862325456554</v>
+        <v>0.07780760966866578</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2213507600408778</v>
+        <v>0.09573379536244561</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5201312346442396</v>
+        <v>0.6962706411279245</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1108389922589246</v>
+        <v>0.06103817075380358</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.001711927147584849</v>
+        <v>-0.0009891166833161688</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1241065628620917</v>
+        <v>0.002268313855635574</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1170436185958559</v>
+        <v>0.1999993330331042</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.0972403634145055</v>
+        <v>0.7800007428514291</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.005186161183856458</v>
+        <v>-0.001065093801448775</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1270508620537776</v>
+        <v>0.002269123102064011</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1624513152579756</v>
+        <v>0.1999995091724977</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.09572806553046015</v>
+        <v>0.00999997185428371</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.08030022005608356</v>
+        <v>0.7750005422751267</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02995639143279542</v>
+        <v>0.001706453550795025</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7421898822359545</v>
+        <v>0.7760529830641222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.122592200128986</v>
+        <v>0.002010370423522397</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.160163711817313</v>
+        <v>0.199979546336019</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.08788277008875169</v>
+        <v>0.009999039529196617</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1.563652288748735E-11</v>
+        <v>0.775023178175507</v>
       </c>
     </row>
     <row r="8" spans="1:2">
